--- a/Docs/Latest/2017_FEB.xlsx
+++ b/Docs/Latest/2017_FEB.xlsx
@@ -428,7 +428,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +474,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -944,13 +950,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12463,2916 +12464,2888 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="68">
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>914</v>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76">
+        <v>920</v>
       </c>
       <c r="F2">
-        <v>1900</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>998</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="68">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1624</v>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76">
+        <v>1630</v>
       </c>
       <c r="F3">
-        <v>2566</v>
+        <v>3000</v>
       </c>
       <c r="G3">
-        <v>1512</v>
-      </c>
-      <c r="J3">
-        <v>1582</v>
+        <v>2000</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76">
+        <v>1600</v>
       </c>
       <c r="K3">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
         <v>3</v>
       </c>
       <c r="B4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
-        <v>1750</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76">
         <v>1700</v>
       </c>
       <c r="F4">
-        <v>3940</v>
+        <v>4000</v>
       </c>
       <c r="G4">
-        <v>2100</v>
-      </c>
-      <c r="J4">
-        <v>2646</v>
+        <v>2500</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76">
+        <v>2800</v>
       </c>
       <c r="K4">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="73">
         <v>4</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2086</v>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76">
+        <v>2090</v>
       </c>
       <c r="F5">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G5">
-        <v>2085</v>
-      </c>
-      <c r="J5">
-        <v>2620</v>
+        <v>2500</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76">
+        <v>2800</v>
       </c>
       <c r="K5">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="68">
         <v>5</v>
       </c>
       <c r="B6" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>1080</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76">
         <v>1210</v>
       </c>
       <c r="F6">
-        <v>2540</v>
+        <v>3000</v>
       </c>
       <c r="G6">
-        <v>1365</v>
-      </c>
-      <c r="J6">
-        <v>1710</v>
+        <v>1500</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76">
+        <v>1800</v>
       </c>
       <c r="K6">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="68">
         <v>6</v>
       </c>
       <c r="B7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1336</v>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76">
+        <v>1340</v>
       </c>
       <c r="F7">
-        <v>1940</v>
+        <v>2000</v>
       </c>
       <c r="G7">
-        <v>1035</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="68">
         <v>7</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2542</v>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76">
+        <v>2550</v>
       </c>
       <c r="F8">
-        <v>4680</v>
+        <v>5000</v>
       </c>
       <c r="G8">
-        <v>2505</v>
-      </c>
-      <c r="J8">
-        <v>3148</v>
+        <v>3000</v>
+      </c>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76">
+        <v>3200</v>
       </c>
       <c r="K8">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="68">
         <v>8</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C9">
-        <v>1470</v>
-      </c>
-      <c r="E9">
-        <v>684</v>
+      <c r="C9" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76">
+        <v>690</v>
       </c>
       <c r="F9">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="G9">
-        <v>1770</v>
-      </c>
-      <c r="J9">
-        <v>2088</v>
+        <v>2000</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76">
+        <v>2200</v>
       </c>
       <c r="K9">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="68">
         <v>9</v>
       </c>
       <c r="B10" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
-        <v>1680</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76">
         <v>3990</v>
       </c>
       <c r="F10">
-        <v>5460</v>
+        <v>6000</v>
       </c>
       <c r="G10">
-        <v>3405</v>
-      </c>
-      <c r="J10">
-        <v>2206</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>10</v>
       </c>
       <c r="B11" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5858</v>
+      <c r="C11" s="76">
+        <v>14000</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76">
+        <v>5860</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G11">
-        <v>7245</v>
-      </c>
-      <c r="J11">
+        <v>17500</v>
+      </c>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76">
         <v>5000</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="73">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>1610</v>
-      </c>
-      <c r="E12">
-        <v>746.4</v>
+      <c r="C12" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76">
+        <v>750</v>
       </c>
       <c r="F12">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="G12">
-        <v>1232</v>
-      </c>
-      <c r="J12">
-        <v>2424</v>
+        <v>1500</v>
+      </c>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76">
+        <v>2600</v>
       </c>
       <c r="K12">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="73">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
       <c r="F13">
-        <v>3220</v>
+        <v>4000</v>
       </c>
       <c r="G13">
-        <v>1375.5</v>
-      </c>
-      <c r="J13">
-        <v>300</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="68">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3386</v>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76">
+        <v>3390</v>
       </c>
       <c r="F14">
-        <v>6740</v>
+        <v>7000</v>
       </c>
       <c r="G14">
-        <v>3600</v>
-      </c>
-      <c r="J14">
-        <v>4536</v>
+        <v>4000</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76">
+        <v>4600</v>
       </c>
       <c r="K14">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>14</v>
       </c>
       <c r="B15" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C15">
-        <v>400</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="76">
+        <v>500</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76">
         <v>970</v>
       </c>
       <c r="F15">
-        <v>2140</v>
+        <v>3000</v>
       </c>
       <c r="G15">
-        <v>808.5</v>
-      </c>
-      <c r="J15">
-        <v>1152</v>
+        <v>1000</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76">
+        <v>1200</v>
       </c>
       <c r="K15">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="73">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C16">
-        <v>3020</v>
-      </c>
-      <c r="E16">
-        <v>5208</v>
+      <c r="C16" s="76">
+        <v>3500</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76">
+        <v>5210</v>
       </c>
       <c r="F16">
-        <v>7540</v>
+        <v>8000</v>
       </c>
       <c r="G16">
-        <v>4035</v>
-      </c>
-      <c r="J16">
-        <v>5076</v>
+        <v>4500</v>
+      </c>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76">
+        <v>5200</v>
       </c>
       <c r="K16">
-        <v>6280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C17">
-        <v>810</v>
-      </c>
-      <c r="E17">
-        <v>1906</v>
+      <c r="C17" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76">
+        <v>1910</v>
       </c>
       <c r="F17">
-        <v>3260</v>
+        <v>4000</v>
       </c>
       <c r="G17">
-        <v>1228.5</v>
-      </c>
-      <c r="J17">
-        <v>1756</v>
+        <v>1500</v>
+      </c>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76">
+        <v>1800</v>
       </c>
       <c r="K17">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="73">
         <v>17</v>
       </c>
       <c r="B18" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1808</v>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76">
+        <v>1810</v>
       </c>
       <c r="F18">
-        <v>2160</v>
+        <v>3000</v>
       </c>
       <c r="G18">
-        <v>1395</v>
-      </c>
-      <c r="J18">
-        <v>714</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C19">
-        <v>510</v>
-      </c>
-      <c r="E19">
-        <v>702</v>
+      <c r="C19" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76">
+        <v>710</v>
       </c>
       <c r="F19">
-        <v>1540</v>
+        <v>2000</v>
       </c>
       <c r="G19">
-        <v>825</v>
-      </c>
-      <c r="J19">
-        <v>832</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="73">
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C20">
-        <v>1370</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76">
         <v>1320</v>
       </c>
       <c r="F20">
-        <v>3060</v>
+        <v>4000</v>
       </c>
       <c r="G20">
-        <v>1155</v>
-      </c>
-      <c r="J20">
-        <v>760</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>20</v>
       </c>
       <c r="B21" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
       <c r="F21">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="G21">
-        <v>1050</v>
-      </c>
-      <c r="J21">
-        <v>1322</v>
+        <v>1500</v>
+      </c>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76">
+        <v>1400</v>
       </c>
       <c r="K21">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>21</v>
       </c>
       <c r="B22" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C22">
-        <v>920</v>
-      </c>
-      <c r="E22">
-        <v>1005</v>
+      <c r="C22" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76">
+        <v>1010</v>
       </c>
       <c r="F22">
-        <v>3880</v>
+        <v>4000</v>
       </c>
       <c r="G22">
-        <v>2070</v>
-      </c>
-      <c r="J22">
-        <v>2608</v>
+        <v>2500</v>
+      </c>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76">
+        <v>2800</v>
       </c>
       <c r="K22">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="73">
         <v>22</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C23">
-        <v>1100</v>
-      </c>
-      <c r="E23">
-        <v>844.8</v>
+      <c r="C23" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76">
+        <v>850</v>
       </c>
       <c r="F23">
-        <v>1180</v>
+        <v>2000</v>
       </c>
       <c r="G23">
-        <v>2175</v>
-      </c>
-      <c r="J23">
-        <v>340</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="73">
         <v>23</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1166.3999999999999</v>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76">
+        <v>1170</v>
       </c>
       <c r="F24">
-        <v>5620</v>
+        <v>6000</v>
       </c>
       <c r="G24">
-        <v>1120</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="68">
         <v>24</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25">
-        <v>1900</v>
-      </c>
-      <c r="E25">
-        <v>2836</v>
+      <c r="C25" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76">
+        <v>2840</v>
       </c>
       <c r="F25">
-        <v>4260</v>
+        <v>5000</v>
       </c>
       <c r="G25">
-        <v>2280</v>
-      </c>
-      <c r="J25">
-        <v>2860</v>
+        <v>2500</v>
+      </c>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76">
+        <v>3000</v>
       </c>
       <c r="K25">
-        <v>3540</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="73">
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76">
         <v>360</v>
       </c>
       <c r="F26">
-        <v>1740</v>
+        <v>2000</v>
       </c>
       <c r="G26">
-        <v>644</v>
-      </c>
-      <c r="J26">
-        <v>826</v>
+        <v>1000</v>
+      </c>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76">
+        <v>1000</v>
       </c>
       <c r="K26">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="68">
         <v>26</v>
       </c>
       <c r="B27" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C27">
-        <v>700</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76">
         <v>1080</v>
       </c>
       <c r="F27">
-        <v>1560</v>
+        <v>2000</v>
       </c>
       <c r="G27">
-        <v>840</v>
-      </c>
-      <c r="J27">
-        <v>1046</v>
+        <v>1000</v>
+      </c>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76">
+        <v>1200</v>
       </c>
       <c r="K27">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="73">
         <v>27</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
       <c r="F28">
-        <v>3920</v>
+        <v>4000</v>
       </c>
       <c r="G28">
-        <v>2970</v>
-      </c>
-      <c r="J28">
-        <v>3728</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="68">
         <v>28</v>
       </c>
       <c r="B29" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
-      <c r="E29">
-        <v>1364</v>
+      <c r="C29" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76">
+        <v>1370</v>
       </c>
       <c r="F29">
-        <v>2840</v>
+        <v>3000</v>
       </c>
       <c r="G29">
-        <v>1695</v>
-      </c>
-      <c r="J29">
-        <v>2044</v>
+        <v>2000</v>
+      </c>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76">
+        <v>2200</v>
       </c>
       <c r="K29">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="73">
         <v>29</v>
       </c>
       <c r="B30" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>1912</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76">
+        <v>1920</v>
       </c>
       <c r="G30">
-        <v>1485</v>
-      </c>
-      <c r="J30">
-        <v>116</v>
+        <v>1500</v>
+      </c>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76">
+        <v>200</v>
       </c>
       <c r="K30">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="68">
         <v>30</v>
       </c>
       <c r="B31" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C31">
-        <v>3190</v>
-      </c>
-      <c r="E31">
-        <v>3426</v>
+      <c r="C31" s="76">
+        <v>3500</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76">
+        <v>3430</v>
       </c>
       <c r="F31">
-        <v>7660</v>
+        <v>8000</v>
       </c>
       <c r="G31">
-        <v>4095</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
+        <v>4500</v>
+      </c>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
       <c r="K31">
-        <v>6380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="68">
         <v>31</v>
       </c>
       <c r="B32" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C32">
-        <v>4090</v>
-      </c>
-      <c r="E32">
-        <v>4278</v>
+      <c r="C32" s="76">
+        <v>4500</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76">
+        <v>4280</v>
       </c>
       <c r="F32">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="G32">
-        <v>5295</v>
-      </c>
-      <c r="J32">
-        <v>6674</v>
+        <v>5500</v>
+      </c>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76">
+        <v>6800</v>
       </c>
       <c r="K32">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="73">
         <v>32</v>
       </c>
       <c r="B33" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C33">
-        <v>1560</v>
-      </c>
-      <c r="E33">
+      <c r="C33" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76">
         <v>2330</v>
       </c>
       <c r="F33">
-        <v>4280</v>
+        <v>5000</v>
       </c>
       <c r="G33">
-        <v>2295</v>
-      </c>
-      <c r="J33">
-        <v>2094</v>
+        <v>2500</v>
+      </c>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76">
+        <v>2200</v>
       </c>
       <c r="K33">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="73">
         <v>33</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>3778</v>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76">
+        <v>3780</v>
       </c>
       <c r="F34">
-        <v>8740</v>
-      </c>
-      <c r="G34">
-        <v>4680</v>
-      </c>
-      <c r="J34">
-        <v>5888</v>
+        <v>9000</v>
+      </c>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76">
+        <v>6000</v>
       </c>
       <c r="K34">
-        <v>6430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="68">
         <v>34</v>
       </c>
       <c r="B35" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C35">
-        <v>3790</v>
-      </c>
-      <c r="E35">
-        <v>3672</v>
+      <c r="C35" s="76">
+        <v>4000</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76">
+        <v>3680</v>
       </c>
       <c r="F35">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G35">
-        <v>4545</v>
-      </c>
-      <c r="J35">
-        <v>5722</v>
+        <v>5000</v>
+      </c>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76">
+        <v>5800</v>
       </c>
       <c r="K35">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="68">
         <v>35</v>
       </c>
       <c r="B36" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C36">
-        <v>3610</v>
-      </c>
-      <c r="E36">
-        <v>4282</v>
+      <c r="C36" s="76">
+        <v>4000</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76">
+        <v>4290</v>
       </c>
       <c r="F36">
-        <v>8080</v>
+        <v>9000</v>
       </c>
       <c r="G36">
-        <v>4320</v>
-      </c>
-      <c r="J36">
-        <v>5446</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="68">
         <v>36</v>
       </c>
       <c r="B37" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>1746</v>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76">
+        <v>1750</v>
       </c>
       <c r="F37">
-        <v>2440</v>
+        <v>3000</v>
       </c>
       <c r="G37">
-        <v>1575</v>
-      </c>
-      <c r="J37">
-        <v>1402</v>
+        <v>2000</v>
+      </c>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76">
+        <v>1600</v>
       </c>
       <c r="K37">
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>37</v>
       </c>
       <c r="B38" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C38">
-        <v>4110</v>
-      </c>
-      <c r="E38">
-        <v>4486</v>
+      <c r="C38" s="76">
+        <v>4500</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76">
+        <v>4490</v>
       </c>
       <c r="F38">
-        <v>12908</v>
+        <v>13000</v>
       </c>
       <c r="G38">
-        <v>4935</v>
-      </c>
-      <c r="J38">
-        <v>4900</v>
+        <v>5000</v>
+      </c>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76">
+        <v>5000</v>
       </c>
       <c r="K38">
         <v>6000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="68">
         <v>38</v>
       </c>
       <c r="B39" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C39">
-        <v>3650</v>
-      </c>
-      <c r="E39">
-        <v>5664</v>
+      <c r="C39" s="76">
+        <v>4000</v>
+      </c>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76">
+        <v>5670</v>
       </c>
       <c r="F39">
-        <v>8180</v>
+        <v>9000</v>
       </c>
       <c r="G39">
-        <v>4380</v>
-      </c>
-      <c r="J39">
-        <v>5514</v>
+        <v>4500</v>
+      </c>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76">
+        <v>5600</v>
       </c>
       <c r="K39">
-        <v>6820</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="68">
         <v>39</v>
       </c>
       <c r="B40" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C40">
-        <v>900</v>
-      </c>
-      <c r="E40">
-        <v>1892</v>
+      <c r="C40" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76">
+        <v>1900</v>
       </c>
       <c r="F40">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="G40">
-        <v>1980</v>
-      </c>
-      <c r="J40">
-        <v>2482</v>
+        <v>2000</v>
+      </c>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76">
+        <v>2600</v>
       </c>
       <c r="K40">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="73">
         <v>40</v>
       </c>
       <c r="B41" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>192</v>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76">
+        <v>200</v>
       </c>
       <c r="F41">
-        <v>400</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="73">
         <v>41</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>2832</v>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76">
+        <v>2840</v>
       </c>
       <c r="F42">
-        <v>3360</v>
+        <v>4000</v>
       </c>
       <c r="G42">
-        <v>2190</v>
-      </c>
-      <c r="J42">
-        <v>2756</v>
+        <v>2500</v>
+      </c>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76">
+        <v>2800</v>
       </c>
       <c r="K42">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="68">
         <v>42</v>
       </c>
       <c r="B43" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76">
         <v>1370</v>
       </c>
       <c r="F43">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="G43">
-        <v>644</v>
-      </c>
-      <c r="J43">
-        <v>1080</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="73">
         <v>43</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C44">
-        <v>9310</v>
-      </c>
-      <c r="E44">
-        <v>11326</v>
+      <c r="C44" s="76">
+        <v>9500</v>
+      </c>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76">
+        <v>11330</v>
       </c>
       <c r="F44">
-        <v>26160</v>
+        <v>27000</v>
       </c>
       <c r="G44">
-        <v>13995</v>
-      </c>
-      <c r="J44">
-        <v>17630</v>
+        <v>14000</v>
+      </c>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76">
+        <v>17800</v>
       </c>
       <c r="K44">
-        <v>21800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="73">
         <v>44</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C45">
-        <v>2100</v>
-      </c>
-      <c r="E45">
-        <v>1756.8</v>
+      <c r="C45" s="76">
+        <v>2500</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76">
+        <v>1760</v>
       </c>
       <c r="F45">
-        <v>8460</v>
+        <v>9000</v>
       </c>
       <c r="G45">
-        <v>4530</v>
-      </c>
-      <c r="J45">
-        <v>5702</v>
+        <v>5000</v>
+      </c>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76">
+        <v>5800</v>
       </c>
       <c r="K45">
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="68">
         <v>45</v>
       </c>
       <c r="B46" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C46">
-        <v>3130</v>
-      </c>
-      <c r="E46">
-        <v>3142</v>
+      <c r="C46" s="76">
+        <v>3500</v>
+      </c>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76">
+        <v>3150</v>
       </c>
       <c r="F46">
-        <v>7280</v>
+        <v>8000</v>
       </c>
       <c r="G46">
-        <v>3900</v>
-      </c>
-      <c r="J46">
-        <v>4902</v>
+        <v>4000</v>
+      </c>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76">
+        <v>5000</v>
       </c>
       <c r="K46">
-        <v>5460</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="74">
         <v>46</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C47">
-        <v>1940</v>
-      </c>
-      <c r="E47">
-        <v>3008</v>
+      <c r="C47" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76">
+        <v>3010</v>
       </c>
       <c r="F47">
-        <v>4360</v>
+        <v>5000</v>
       </c>
       <c r="G47">
-        <v>2325</v>
-      </c>
-      <c r="J47">
-        <v>2932</v>
+        <v>2500</v>
+      </c>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76">
+        <v>3000</v>
       </c>
       <c r="K47">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="68">
         <v>47</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C48">
-        <v>810</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
+      <c r="C48" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
       <c r="F48">
-        <v>1820</v>
+        <v>2000</v>
       </c>
       <c r="G48">
-        <v>975</v>
-      </c>
-      <c r="J48">
-        <v>1216</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="68">
         <v>48</v>
       </c>
       <c r="B49" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C49">
-        <v>5400</v>
-      </c>
-      <c r="E49">
-        <v>5236</v>
+      <c r="C49" s="76">
+        <v>5500</v>
+      </c>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76">
+        <v>5240</v>
       </c>
       <c r="F49">
-        <v>12120</v>
+        <v>13000</v>
       </c>
       <c r="G49">
-        <v>6480</v>
-      </c>
-      <c r="J49">
-        <v>8164</v>
+        <v>6500</v>
+      </c>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76">
+        <v>8200</v>
       </c>
       <c r="K49">
-        <v>8810</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="73">
         <v>49</v>
       </c>
       <c r="B50" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
       <c r="F50">
-        <v>2860</v>
+        <v>3000</v>
       </c>
       <c r="G50">
-        <v>1530</v>
-      </c>
-      <c r="J50">
-        <v>1926</v>
+        <v>2000</v>
+      </c>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76">
+        <v>2000</v>
       </c>
       <c r="K50">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="73">
         <v>50</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C51">
-        <v>1050</v>
-      </c>
-      <c r="E51">
-        <v>4424</v>
+      <c r="C51" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76">
+        <v>4430</v>
       </c>
       <c r="F51">
-        <v>6400</v>
+        <v>7000</v>
       </c>
       <c r="G51">
-        <v>3420</v>
-      </c>
-      <c r="J51">
-        <v>4306</v>
+        <v>3500</v>
+      </c>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76">
+        <v>4400</v>
       </c>
       <c r="K51">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="68">
         <v>51</v>
       </c>
       <c r="B52" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C52">
-        <v>3160</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
+      <c r="C52" s="76">
+        <v>3500</v>
+      </c>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
       <c r="F52">
-        <v>13620</v>
+        <v>14000</v>
       </c>
       <c r="G52">
-        <v>7275</v>
-      </c>
-      <c r="J52">
-        <v>9172</v>
+        <v>7500</v>
+      </c>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76">
+        <v>9200</v>
       </c>
       <c r="K52">
-        <v>9820</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="68">
         <v>52</v>
       </c>
       <c r="B53" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C53">
-        <v>860</v>
-      </c>
-      <c r="E53">
-        <v>1706</v>
+      <c r="C53" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76">
+        <v>1710</v>
       </c>
       <c r="F53">
-        <v>2580</v>
+        <v>3000</v>
       </c>
       <c r="G53">
-        <v>1380</v>
-      </c>
-      <c r="J53">
-        <v>1728</v>
+        <v>1500</v>
+      </c>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76">
+        <v>1800</v>
       </c>
       <c r="K53">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="68">
         <v>53</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1814</v>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76">
+        <v>1820</v>
       </c>
       <c r="F54">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G54">
-        <v>1875</v>
-      </c>
-      <c r="J54">
-        <v>2356</v>
+        <v>2000</v>
+      </c>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76">
+        <v>2400</v>
       </c>
       <c r="K54">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="68">
         <v>54</v>
       </c>
       <c r="B55" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
       <c r="F55">
-        <v>5680</v>
+        <v>6000</v>
       </c>
       <c r="G55">
-        <v>1400</v>
-      </c>
-      <c r="J55">
+        <v>1500</v>
+      </c>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76">
         <v>3000</v>
       </c>
       <c r="K55">
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="73">
         <v>55</v>
       </c>
       <c r="B56" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C56">
-        <v>1370</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
+      <c r="C56" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
       <c r="F56">
-        <v>4640</v>
+        <v>5000</v>
       </c>
       <c r="G56">
-        <v>2475</v>
-      </c>
-      <c r="J56">
-        <v>3120</v>
+        <v>2500</v>
+      </c>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76">
+        <v>3200</v>
       </c>
       <c r="K56">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="68">
         <v>56</v>
       </c>
       <c r="B57" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C57">
-        <v>2210</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
+      <c r="C57" s="76">
+        <v>2500</v>
+      </c>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
       <c r="F57">
-        <v>4960</v>
+        <v>5000</v>
       </c>
       <c r="G57">
-        <v>1400</v>
-      </c>
-      <c r="J57">
-        <v>3340</v>
+        <v>1500</v>
+      </c>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76">
+        <v>3400</v>
       </c>
       <c r="K57">
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="68">
         <v>57</v>
       </c>
       <c r="B58" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C58">
-        <v>180</v>
-      </c>
-      <c r="E58">
+      <c r="C58" s="76">
+        <v>500</v>
+      </c>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76">
         <v>1520</v>
       </c>
       <c r="F58">
-        <v>3520</v>
+        <v>4000</v>
       </c>
       <c r="G58">
-        <v>1890</v>
-      </c>
-      <c r="J58">
-        <v>2000</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="68">
         <v>58</v>
       </c>
       <c r="B59" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C59">
-        <v>1610</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
+      <c r="C59" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
       <c r="F59">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="G59">
-        <v>1344</v>
-      </c>
-      <c r="J59">
-        <v>1566</v>
+        <v>1500</v>
+      </c>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76">
+        <v>1600</v>
       </c>
       <c r="K59">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="73">
         <v>59</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>2358</v>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76">
+        <v>2360</v>
       </c>
       <c r="F60">
-        <v>2840</v>
+        <v>3000</v>
       </c>
       <c r="G60">
-        <v>2235</v>
-      </c>
-      <c r="J60">
-        <v>264</v>
+        <v>2500</v>
+      </c>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76">
+        <v>400</v>
       </c>
       <c r="K60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="73">
         <v>60</v>
       </c>
       <c r="B61" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>2136</v>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76">
+        <v>2140</v>
       </c>
       <c r="F61">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="G61">
-        <v>700</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="68">
         <v>61</v>
       </c>
       <c r="B62" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C62">
-        <v>1910</v>
-      </c>
-      <c r="E62">
+      <c r="C62" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76">
         <v>2950</v>
       </c>
       <c r="F62">
-        <v>4460</v>
+        <v>5000</v>
       </c>
       <c r="G62">
-        <v>2385</v>
-      </c>
-      <c r="J62">
-        <v>2164</v>
+        <v>2500</v>
+      </c>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76">
+        <v>2200</v>
       </c>
       <c r="K62">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="68">
         <v>62</v>
       </c>
       <c r="B63" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C63">
-        <v>740</v>
-      </c>
-      <c r="E63">
-        <v>1144</v>
+      <c r="C63" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76">
+        <v>1150</v>
       </c>
       <c r="F63">
-        <v>1660</v>
+        <v>2000</v>
       </c>
       <c r="G63">
-        <v>885</v>
-      </c>
-      <c r="J63">
-        <v>756</v>
+        <v>1000</v>
+      </c>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76">
+        <v>800</v>
       </c>
       <c r="K63">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="68">
         <v>63</v>
       </c>
       <c r="B64" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
       <c r="F64">
-        <v>2460</v>
+        <v>3000</v>
       </c>
       <c r="G64">
-        <v>909.99999999999989</v>
-      </c>
-      <c r="J64">
-        <v>1238</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
       <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="73">
         <v>64</v>
       </c>
       <c r="B65" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C65">
-        <v>760</v>
-      </c>
-      <c r="E65">
-        <v>993.59999999999991</v>
+      <c r="C65" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76">
+        <v>1000</v>
       </c>
       <c r="F65">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G65">
-        <v>2565</v>
-      </c>
-      <c r="J65">
-        <v>3226</v>
+        <v>3000</v>
+      </c>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76">
+        <v>3400</v>
       </c>
       <c r="K65">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="68">
         <v>65</v>
       </c>
       <c r="B66" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C66">
-        <v>1410</v>
-      </c>
-      <c r="E66">
-        <v>1519.2</v>
+      <c r="C66" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76">
+        <v>1520</v>
       </c>
       <c r="F66">
-        <v>7320</v>
+        <v>8000</v>
       </c>
       <c r="G66">
-        <v>2740.5</v>
-      </c>
-      <c r="J66">
-        <v>1698</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="68">
         <v>66</v>
       </c>
       <c r="B67" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C67">
-        <v>300</v>
-      </c>
-      <c r="E67">
+      <c r="C67" s="76">
+        <v>500</v>
+      </c>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76">
         <v>480</v>
       </c>
       <c r="F67">
-        <v>2320</v>
+        <v>3000</v>
       </c>
       <c r="G67">
-        <v>871.5</v>
-      </c>
-      <c r="J67">
-        <v>1072</v>
+        <v>1000</v>
+      </c>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76">
+        <v>1200</v>
       </c>
       <c r="K67">
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="68">
         <v>67</v>
       </c>
       <c r="B68" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>3064</v>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76">
+        <v>3070</v>
       </c>
       <c r="F68">
-        <v>7100</v>
+        <v>8000</v>
       </c>
       <c r="G68">
-        <v>3795</v>
-      </c>
-      <c r="J68">
-        <v>4774</v>
+        <v>4000</v>
+      </c>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76">
+        <v>4800</v>
       </c>
       <c r="K68">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="73">
         <v>68</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C69">
-        <v>1860</v>
-      </c>
-      <c r="E69">
-        <v>866.4</v>
+      <c r="C69" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76">
+        <v>870</v>
       </c>
       <c r="F69">
-        <v>4180</v>
+        <v>5000</v>
       </c>
       <c r="G69">
-        <v>2235</v>
-      </c>
-      <c r="J69">
-        <v>2808</v>
+        <v>2500</v>
+      </c>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76">
+        <v>3000</v>
       </c>
       <c r="K69">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="73">
         <v>69</v>
       </c>
       <c r="B70" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>3422</v>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76">
+        <v>3430</v>
       </c>
       <c r="F70">
-        <v>7920</v>
+        <v>8000</v>
       </c>
       <c r="G70">
-        <v>4230</v>
-      </c>
-      <c r="J70">
-        <v>5328</v>
+        <v>4500</v>
+      </c>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76">
+        <v>5400</v>
       </c>
       <c r="K70">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="68">
         <v>70</v>
       </c>
       <c r="B71" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C71">
-        <v>1230</v>
-      </c>
-      <c r="E71">
-        <v>3288</v>
-      </c>
-      <c r="F71">
-        <v>940</v>
+      <c r="C71" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76">
+        <v>3290</v>
       </c>
       <c r="G71">
-        <v>2550</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+      <c r="I71" s="76"/>
+      <c r="J71" s="76"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="68">
         <v>71</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C72">
-        <v>730</v>
-      </c>
-      <c r="E72">
-        <v>706</v>
+      <c r="C72" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76">
+        <v>710</v>
       </c>
       <c r="F72">
-        <v>1640</v>
+        <v>2000</v>
       </c>
       <c r="G72">
-        <v>885</v>
-      </c>
-      <c r="J72">
-        <v>100</v>
+        <v>1000</v>
+      </c>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76">
+        <v>200</v>
       </c>
       <c r="K72">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="68">
         <v>72</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C73">
-        <v>2000</v>
-      </c>
-      <c r="E73">
-        <v>4216</v>
+      <c r="C73" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76">
+        <v>4220</v>
       </c>
       <c r="F73">
-        <v>6100</v>
+        <v>7000</v>
       </c>
       <c r="G73">
-        <v>3255</v>
-      </c>
-      <c r="J73">
-        <v>1194</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="73">
         <v>73</v>
       </c>
       <c r="B74" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="C74">
-        <v>1440</v>
-      </c>
-      <c r="E74">
-        <v>1384</v>
+      <c r="C74" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76">
+        <v>1390</v>
       </c>
       <c r="F74">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G74">
-        <v>1725</v>
-      </c>
-      <c r="J74">
-        <v>1000</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+      <c r="I74" s="76"/>
+      <c r="J74" s="76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="68">
         <v>74</v>
       </c>
       <c r="B75" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>2214</v>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76">
+        <v>2220</v>
       </c>
       <c r="F75">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="G75">
-        <v>2745</v>
-      </c>
-      <c r="J75">
-        <v>3450</v>
+        <v>3000</v>
+      </c>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76">
+        <v>3600</v>
       </c>
       <c r="K75">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="68">
         <v>75</v>
       </c>
       <c r="B76" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C76">
-        <v>2260</v>
-      </c>
-      <c r="E76">
-        <v>3496</v>
+      <c r="C76" s="76">
+        <v>2500</v>
+      </c>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76">
+        <v>3500</v>
       </c>
       <c r="F76">
-        <v>5060</v>
+        <v>6000</v>
       </c>
       <c r="G76">
-        <v>2715</v>
-      </c>
-      <c r="J76">
-        <v>3142</v>
+        <v>3000</v>
+      </c>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76">
+        <v>3200</v>
       </c>
       <c r="K76">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="68">
         <v>76</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C77">
-        <v>3060</v>
-      </c>
-      <c r="E77">
+      <c r="C77" s="76">
+        <v>3500</v>
+      </c>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76">
         <v>5000</v>
       </c>
       <c r="F77">
-        <v>8280</v>
+        <v>9000</v>
       </c>
       <c r="G77">
-        <v>4425</v>
-      </c>
-      <c r="J77">
-        <v>5572</v>
+        <v>4500</v>
+      </c>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76">
+        <v>5600</v>
       </c>
       <c r="K77">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="68">
         <v>77</v>
       </c>
       <c r="B78" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C78">
-        <v>3800</v>
-      </c>
-      <c r="E78">
+      <c r="C78" s="76">
+        <v>4000</v>
+      </c>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76">
         <v>3870</v>
       </c>
       <c r="F78">
-        <v>8520</v>
+        <v>9000</v>
       </c>
       <c r="G78">
-        <v>4545</v>
-      </c>
-      <c r="J78">
-        <v>5730</v>
+        <v>5000</v>
+      </c>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76">
+        <v>5800</v>
       </c>
       <c r="K78">
         <v>4000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="68">
         <v>78</v>
       </c>
       <c r="B79" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C79">
-        <v>2450</v>
-      </c>
-      <c r="E79">
-        <v>4074</v>
+      <c r="C79" s="76">
+        <v>2500</v>
+      </c>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76">
+        <v>4080</v>
       </c>
       <c r="F79">
-        <v>8180</v>
+        <v>9000</v>
       </c>
       <c r="G79">
-        <v>4380</v>
-      </c>
-      <c r="J79">
-        <v>5514</v>
+        <v>4500</v>
+      </c>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76">
+        <v>5600</v>
       </c>
       <c r="K79">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="73">
         <v>79</v>
       </c>
       <c r="B80" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>664.8</v>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76">
+        <v>670</v>
       </c>
       <c r="F80">
         <v>2000</v>
       </c>
       <c r="G80">
-        <v>700</v>
-      </c>
-      <c r="J80">
+        <v>1000</v>
+      </c>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76">
         <v>2000</v>
       </c>
       <c r="K80">
         <v>1500</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="68">
         <v>80</v>
       </c>
       <c r="B81" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C81">
-        <v>720</v>
-      </c>
-      <c r="E81">
-        <v>3472</v>
+      <c r="C81" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76">
+        <v>3480</v>
       </c>
       <c r="F81">
-        <v>5720</v>
+        <v>6000</v>
       </c>
       <c r="G81">
-        <v>3060</v>
-      </c>
-      <c r="J81">
-        <v>3642</v>
+        <v>3500</v>
+      </c>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76">
+        <v>3800</v>
       </c>
       <c r="K81">
-        <v>4460</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="68">
         <v>81</v>
       </c>
       <c r="B82" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76">
         <v>810</v>
       </c>
-      <c r="E82">
-        <v>808</v>
-      </c>
       <c r="F82">
-        <v>1820</v>
+        <v>2000</v>
       </c>
       <c r="G82">
-        <v>975</v>
-      </c>
-      <c r="J82">
-        <v>496</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="68">
         <v>82</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C83">
-        <v>1000</v>
-      </c>
-      <c r="E83">
-        <v>1028</v>
+      <c r="C83" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76">
+        <v>1030</v>
       </c>
       <c r="F83">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="G83">
-        <v>714</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="I83" s="76"/>
+      <c r="J83" s="76"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="73">
         <v>83</v>
       </c>
       <c r="B84" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C84">
-        <v>1110</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>3520</v>
-      </c>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
       <c r="G84">
-        <v>2325</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="68">
         <v>84</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C85">
-        <v>2900</v>
-      </c>
-      <c r="E85">
-        <v>2467.1999999999998</v>
+      <c r="C85" s="76">
+        <v>3000</v>
+      </c>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76">
+        <v>2470</v>
       </c>
       <c r="F85">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="G85">
-        <v>6360</v>
-      </c>
-      <c r="J85">
-        <v>8010</v>
+        <v>6500</v>
+      </c>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76">
+        <v>8200</v>
       </c>
       <c r="K85">
-        <v>4910</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="68">
         <v>85</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="C86">
-        <v>1420</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
+      <c r="C86" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
       <c r="F86">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="G86">
-        <v>3874.4999999999995</v>
-      </c>
-      <c r="J86">
-        <v>6732</v>
+        <v>4000</v>
+      </c>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76">
+        <v>6800</v>
       </c>
       <c r="K86">
-        <v>8630</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="68">
         <v>86</v>
       </c>
       <c r="B87" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="C87">
-        <v>1310</v>
-      </c>
-      <c r="E87">
-        <v>2032</v>
+      <c r="C87" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76">
+        <v>2040</v>
       </c>
       <c r="F87">
-        <v>2940</v>
+        <v>3000</v>
       </c>
       <c r="G87">
-        <v>1575</v>
-      </c>
-      <c r="J87">
-        <v>1974</v>
+        <v>2000</v>
+      </c>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76">
+        <v>2000</v>
       </c>
       <c r="K87">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="73">
         <v>87</v>
       </c>
       <c r="B88" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C88">
-        <v>1000</v>
-      </c>
-      <c r="E88">
+      <c r="C88" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76">
         <v>1370</v>
       </c>
       <c r="F88">
-        <v>3420</v>
+        <v>4000</v>
       </c>
       <c r="G88">
-        <v>1830</v>
-      </c>
-      <c r="J88">
-        <v>2300</v>
+        <v>2000</v>
+      </c>
+      <c r="I88" s="76"/>
+      <c r="J88" s="76">
+        <v>2400</v>
       </c>
       <c r="K88">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="68">
         <v>88</v>
       </c>
       <c r="B89" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="C89">
-        <v>1110</v>
-      </c>
-      <c r="E89">
-        <v>652.79999999999995</v>
-      </c>
-      <c r="F89">
-        <v>3140</v>
+      <c r="C89" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76">
+        <v>660</v>
       </c>
       <c r="G89">
-        <v>1176</v>
-      </c>
-      <c r="J89">
-        <v>1220</v>
+        <v>5500</v>
+      </c>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76">
+        <v>1400</v>
       </c>
       <c r="K89">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="73">
         <v>89</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>799.19999999999993</v>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76">
+        <v>800</v>
       </c>
       <c r="F90">
-        <v>3860</v>
+        <v>4000</v>
       </c>
       <c r="G90">
-        <v>1449</v>
-      </c>
-      <c r="J90">
+        <v>1500</v>
+      </c>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76">
         <v>2000</v>
       </c>
       <c r="K90">
         <v>1500</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="73">
         <v>90</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="C91">
-        <v>1890</v>
-      </c>
-      <c r="E91">
-        <v>3024</v>
+      <c r="C91" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76">
+        <v>3030</v>
       </c>
       <c r="F91">
-        <v>780</v>
+        <v>1000</v>
       </c>
       <c r="G91">
-        <v>2340</v>
-      </c>
-      <c r="J91">
-        <v>2946</v>
+        <v>2500</v>
+      </c>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76">
+        <v>3000</v>
       </c>
       <c r="K91">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="68">
         <v>91</v>
       </c>
       <c r="B92" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="76">
         <v>500</v>
       </c>
-      <c r="E92">
-        <v>1226</v>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76">
+        <v>1230</v>
       </c>
       <c r="F92">
-        <v>2520</v>
+        <v>3000</v>
       </c>
       <c r="G92">
-        <v>1350</v>
-      </c>
-      <c r="J92">
-        <v>1690</v>
+        <v>1500</v>
+      </c>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76">
+        <v>1800</v>
       </c>
       <c r="K92">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="68">
         <v>92</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C93">
-        <v>1000</v>
-      </c>
-      <c r="E93">
+      <c r="C93" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76">
         <v>3060</v>
       </c>
       <c r="F93">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="G93">
-        <v>3555</v>
-      </c>
-      <c r="J93">
-        <v>3112</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="I93" s="76"/>
+      <c r="J93" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="68">
         <v>93</v>
       </c>
       <c r="B94" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C94">
-        <v>320</v>
-      </c>
-      <c r="E94">
-        <v>1064</v>
+      <c r="C94" s="76">
+        <v>500</v>
+      </c>
+      <c r="D94" s="76"/>
+      <c r="E94" s="76">
+        <v>1070</v>
       </c>
       <c r="F94">
-        <v>2460</v>
+        <v>3000</v>
       </c>
       <c r="G94">
-        <v>1320</v>
-      </c>
-      <c r="J94">
-        <v>1108</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="I94" s="76"/>
+      <c r="J94" s="76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="73">
         <v>94</v>
       </c>
       <c r="B95" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
       <c r="G95">
-        <v>430.5</v>
-      </c>
-      <c r="J95">
+        <v>500</v>
+      </c>
+      <c r="I95" s="76"/>
+      <c r="J95" s="76">
         <v>400</v>
       </c>
       <c r="K95">
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="68">
         <v>95</v>
       </c>
       <c r="B96" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C96">
-        <v>1600</v>
-      </c>
-      <c r="E96">
-        <v>1752</v>
+      <c r="C96" s="76">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76">
+        <v>1760</v>
       </c>
       <c r="F96">
-        <v>8440</v>
+        <v>9000</v>
       </c>
       <c r="G96">
-        <v>4515</v>
-      </c>
-      <c r="J96">
-        <v>3848</v>
+        <v>5000</v>
+      </c>
+      <c r="I96" s="76"/>
+      <c r="J96" s="76">
+        <v>4000</v>
       </c>
       <c r="K96">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="73">
         <v>96</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>1266</v>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76">
+        <v>1270</v>
       </c>
       <c r="F97">
-        <v>2220</v>
+        <v>3000</v>
       </c>
       <c r="G97">
-        <v>1185</v>
-      </c>
-      <c r="J97">
-        <v>1082</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+      <c r="I97" s="76"/>
+      <c r="J97" s="76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="68">
         <v>97</v>
       </c>
       <c r="B98" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>764</v>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76">
+        <v>770</v>
       </c>
       <c r="F98">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="G98">
-        <v>682.5</v>
-      </c>
-      <c r="J98">
-        <v>1224</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="68">
         <v>98</v>
       </c>
       <c r="B99" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
       <c r="F99">
-        <v>6560</v>
+        <v>7000</v>
       </c>
       <c r="G99">
-        <v>3585</v>
-      </c>
-      <c r="J99">
-        <v>2816</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="68">
         <v>99</v>
       </c>
       <c r="B100" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="C100">
-        <v>1000</v>
-      </c>
-      <c r="E100">
-        <v>1362</v>
+      <c r="C100" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76">
+        <v>1370</v>
       </c>
       <c r="F100">
-        <v>3180</v>
+        <v>4000</v>
       </c>
       <c r="G100">
-        <v>1695</v>
-      </c>
-      <c r="J100">
-        <v>2138</v>
+        <v>2000</v>
+      </c>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76">
+        <v>2200</v>
       </c>
       <c r="K100">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="73">
         <v>100</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="C101">
-        <v>2970</v>
-      </c>
-      <c r="E101">
-        <v>4608</v>
+      <c r="C101" s="76">
+        <v>3000</v>
+      </c>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76">
+        <v>4610</v>
       </c>
       <c r="F101">
-        <v>6660</v>
+        <v>7000</v>
       </c>
       <c r="G101">
-        <v>3570</v>
-      </c>
-      <c r="J101">
-        <v>4490</v>
+        <v>4000</v>
+      </c>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76">
+        <v>4600</v>
       </c>
       <c r="K101">
-        <v>5370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="73">
         <v>101</v>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C102">
-        <v>2790</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
+      <c r="C102" s="76">
+        <v>3000</v>
+      </c>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
       <c r="F102">
-        <v>8940</v>
+        <v>9000</v>
       </c>
       <c r="G102">
-        <v>4785</v>
-      </c>
-      <c r="J102">
-        <v>2308</v>
-      </c>
-      <c r="K102">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="73">
         <v>102</v>
       </c>
       <c r="B103" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C103">
-        <v>230</v>
-      </c>
-      <c r="E103">
-        <v>1544</v>
+      <c r="C103" s="76">
+        <v>500</v>
+      </c>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76">
+        <v>1550</v>
       </c>
       <c r="F103">
-        <v>2240</v>
+        <v>3000</v>
       </c>
       <c r="G103">
-        <v>168</v>
-      </c>
-      <c r="J103">
-        <v>628</v>
+        <v>500</v>
+      </c>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76">
+        <v>800</v>
       </c>
       <c r="K103">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="68">
         <v>103</v>
       </c>
       <c r="B104" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
       <c r="F104">
-        <v>5540</v>
+        <v>6000</v>
       </c>
       <c r="G104">
-        <v>1750</v>
-      </c>
-      <c r="J104">
-        <v>3728</v>
+        <v>2000</v>
+      </c>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76">
+        <v>3800</v>
       </c>
       <c r="K104">
         <v>2500</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="68">
         <v>104</v>
       </c>
       <c r="B105" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
       <c r="F105">
-        <v>4380</v>
+        <v>5000</v>
       </c>
       <c r="G105">
-        <v>1638</v>
-      </c>
-      <c r="J105">
-        <v>2942</v>
+        <v>2000</v>
+      </c>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76">
+        <v>3000</v>
       </c>
       <c r="K105">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="68">
         <v>105</v>
       </c>
       <c r="B106" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="C106">
-        <v>470</v>
-      </c>
-      <c r="E106">
-        <v>3384</v>
+      <c r="C106" s="76">
+        <v>500</v>
+      </c>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76">
+        <v>3390</v>
       </c>
       <c r="F106">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G106">
-        <v>2625</v>
-      </c>
-      <c r="J106">
-        <v>3228</v>
+        <v>3000</v>
+      </c>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76">
+        <v>3400</v>
       </c>
       <c r="K106">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="68">
         <v>106</v>
       </c>
       <c r="B107" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="C107">
-        <v>1180</v>
-      </c>
-      <c r="E107">
-        <v>1828</v>
+      <c r="C107" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76">
+        <v>1830</v>
       </c>
       <c r="F107">
-        <v>3220</v>
+        <v>4000</v>
       </c>
       <c r="G107">
-        <v>1965</v>
-      </c>
-      <c r="J107">
-        <v>994</v>
+        <v>2000</v>
+      </c>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76">
+        <v>1000</v>
       </c>
       <c r="K107">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="73">
         <v>107</v>
       </c>
       <c r="B108" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="C108">
-        <v>1430</v>
-      </c>
-      <c r="E108">
-        <v>1894</v>
+      <c r="C108" s="76">
+        <v>1500</v>
+      </c>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76">
+        <v>1900</v>
       </c>
       <c r="F108">
-        <v>3880</v>
+        <v>4000</v>
       </c>
       <c r="G108">
-        <v>2280</v>
-      </c>
-      <c r="J108">
-        <v>758</v>
+        <v>2500</v>
+      </c>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76">
+        <v>800</v>
       </c>
       <c r="K108">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="73">
         <v>108</v>
       </c>
       <c r="B109" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>2222</v>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76">
+        <v>2230</v>
       </c>
       <c r="F109">
-        <v>5140</v>
+        <v>6000</v>
       </c>
       <c r="G109">
-        <v>2745</v>
-      </c>
-      <c r="J109">
-        <v>766</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="68">
         <v>109</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
       <c r="F110">
-        <v>9080</v>
+        <v>10000</v>
       </c>
       <c r="G110">
-        <v>4860</v>
-      </c>
-      <c r="J110">
-        <v>4880</v>
+        <v>5000</v>
+      </c>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76">
+        <v>5000</v>
       </c>
       <c r="K110">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="73">
         <v>110</v>
       </c>
       <c r="B111" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="C111">
-        <v>15450</v>
-      </c>
-      <c r="E111">
-        <v>23952</v>
+      <c r="C111" s="76">
+        <v>16500</v>
+      </c>
+      <c r="D111" s="76">
+        <v>3000</v>
+      </c>
+      <c r="E111" s="76">
+        <v>24960</v>
       </c>
       <c r="F111">
-        <v>34640</v>
+        <v>38000</v>
       </c>
       <c r="G111">
-        <v>12967.5</v>
-      </c>
-      <c r="J111">
-        <v>18332</v>
+        <v>14000</v>
+      </c>
+      <c r="I111" s="76">
+        <v>850</v>
+      </c>
+      <c r="J111" s="76">
+        <v>20400</v>
       </c>
       <c r="K111">
-        <v>7970</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="68">
         <v>111</v>
       </c>
       <c r="B112" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="E112">
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76">
         <v>5800</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
       <c r="G112">
-        <v>4485</v>
-      </c>
-      <c r="J112">
-        <v>5646</v>
+        <v>4500</v>
+      </c>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76">
+        <v>5800</v>
       </c>
       <c r="K112">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="73">
         <v>112</v>
       </c>
       <c r="B113" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="C113">
-        <v>750</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
+      <c r="C113" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
       <c r="F113">
-        <v>2080</v>
+        <v>3000</v>
       </c>
       <c r="G113">
-        <v>2220</v>
-      </c>
-      <c r="J113">
-        <v>2796</v>
+        <v>2500</v>
+      </c>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76">
+        <v>2800</v>
       </c>
       <c r="K113">
-        <v>240</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
